--- a/biology/Médecine/Boumédiene_Bensmaïn/Boumédiene_Bensmaïn.xlsx
+++ b/biology/Médecine/Boumédiene_Bensmaïn/Boumédiene_Bensmaïn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Boum%C3%A9diene_Bensma%C3%AFn</t>
+          <t>Boumédiene_Bensmaïn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boumédiene Bensmaïne est un médecin et indépendantiste algérien né à Mostaganem le 31 juillet 1915 et mort 25 avril 1974 à Oran. Membre fondateur du Croissant-Rouge algérien, après l'indépendance, il a fait partie des notables de la ville d'Oran.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Boum%C3%A9diene_Bensma%C3%AFn</t>
+          <t>Boumédiene_Bensmaïn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance
-Boumédienne Bensmaïne est né le 31 juillet 1915 à Mostaganem[1], dans une grande famille mostaganemoise . À la suite de la mort de son père El Hachemi, il est pris en charge à l'age de 8 ans par son grand-père paternel Ahmed, négociant et mokadem de la zaouïa El Bouzidia[2]
-Militantisme
-Il a fait partie de la jeunesse éduquée, bilingue et progressiste de la ville, au sein de l'Union littéraire de Mostaganem[3]. Il a adhéré à l'ENA en 1935 dans sa ville natale. Puis, il part faire ses études de médecine à la faculté d'Aix-Marseille. En 1939, il devient responsable de la section locale du Parti du peuple algérien de Marseille[1]. 
-Il est remarqué par l'administration française, et est emprisonné en France à la suite de distribution de tracts en 1946, libéré en 1947[4]. À son retour, il a ouvert son cabinet dans le quartier Mdina Jdida à Oran[3]. Il devient candidat du Mouvement pour le triomphe des libertés démocratiques aux élections législatives de 1946, qui est invalidé par la préfecture[3].
-En 1955, il rejoint le FLN[3]. Avec le docteur Benzerdjeb, il lance sa clinique privée appelée Dar Echiffa dans laquelle il s'occupait à donner des soins aux moudjahiddines et aux pauvres[4]. Il est membre fondateur du Croissant-Rouge algérien[5] puis son responsable à Madrid[3]. Il rejoint l'ALN au Maroc pour soigner les blessés[6]. Il a notamment effectué des missions diplomatiques pour le Gouvernement provisoire de la République algérienne[4].
-Après l'indépendance
-À l'indépendance, il ne fait pas une carrière politique, mais fait partie des notables de la ville[3]. Il s'occupe des soins de la population oranaise ; il participe à l'édification de plusieurs mosquées à Oran avant de rejoindre le Sahara pour assurer les soins à la population irradiée par les essais nucléaires français dans les régions de Reggane et Adrar[7].
-Il charge des médecins et techniciens pour accompagner les pèlerins à la Mecque[6]. Féru d'histoire, il possédait l'une des plus belles bibliothèques privées d'Oran[3]. Il est mort le 25 avril 1974 à Oran[4].
-Le nouveau Centre hospitalier universitaire de ville de Mostaganem, porte son nom[8].
+          <t>Enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boumédienne Bensmaïne est né le 31 juillet 1915 à Mostaganem, dans une grande famille mostaganemoise . À la suite de la mort de son père El Hachemi, il est pris en charge à l'age de 8 ans par son grand-père paternel Ahmed, négociant et mokadem de la zaouïa El Bouzidia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Boumédiene_Bensmaïn</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boum%C3%A9diene_Bensma%C3%AFn</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Militantisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a fait partie de la jeunesse éduquée, bilingue et progressiste de la ville, au sein de l'Union littéraire de Mostaganem. Il a adhéré à l'ENA en 1935 dans sa ville natale. Puis, il part faire ses études de médecine à la faculté d'Aix-Marseille. En 1939, il devient responsable de la section locale du Parti du peuple algérien de Marseille. 
+Il est remarqué par l'administration française, et est emprisonné en France à la suite de distribution de tracts en 1946, libéré en 1947. À son retour, il a ouvert son cabinet dans le quartier Mdina Jdida à Oran. Il devient candidat du Mouvement pour le triomphe des libertés démocratiques aux élections législatives de 1946, qui est invalidé par la préfecture.
+En 1955, il rejoint le FLN. Avec le docteur Benzerdjeb, il lance sa clinique privée appelée Dar Echiffa dans laquelle il s'occupait à donner des soins aux moudjahiddines et aux pauvres. Il est membre fondateur du Croissant-Rouge algérien puis son responsable à Madrid. Il rejoint l'ALN au Maroc pour soigner les blessés. Il a notamment effectué des missions diplomatiques pour le Gouvernement provisoire de la République algérienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boumédiene_Bensmaïn</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boum%C3%A9diene_Bensma%C3%AFn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Après l'indépendance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'indépendance, il ne fait pas une carrière politique, mais fait partie des notables de la ville. Il s'occupe des soins de la population oranaise ; il participe à l'édification de plusieurs mosquées à Oran avant de rejoindre le Sahara pour assurer les soins à la population irradiée par les essais nucléaires français dans les régions de Reggane et Adrar.
+Il charge des médecins et techniciens pour accompagner les pèlerins à la Mecque. Féru d'histoire, il possédait l'une des plus belles bibliothèques privées d'Oran. Il est mort le 25 avril 1974 à Oran.
+Le nouveau Centre hospitalier universitaire de ville de Mostaganem, porte son nom.
 </t>
         </is>
       </c>
